--- a/data/trans_dic/P54_A_6_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_6_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido (tasa de respuesta: 97,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>74,38%</t>
+          <t>78,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68,64%</t>
+          <t>68,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>42,14%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>80,9%</t>
+          <t>83,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>84,65%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>34,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>77,91%</t>
+          <t>81,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>77,19%</t>
+          <t>76,95%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,78; 36,81</t>
+          <t>19,01; 33,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>68,13; 79,93</t>
+          <t>70,5; 84,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,8; 74,68</t>
+          <t>59,64; 75,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,94; 47,05</t>
+          <t>35,35; 49,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>75,95; 85,2</t>
+          <t>77,65; 88,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,6; 88,02</t>
+          <t>78,53; 89,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,71; 40,49</t>
+          <t>29,77; 40,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>74,0; 81,44</t>
+          <t>76,2; 85,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>73,84; 80,5</t>
+          <t>72,22; 81,58</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>38,96%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>77,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>75,96%</t>
+          <t>72,11%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>79,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>84,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>36,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>76,4%</t>
+          <t>78,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>81,69%</t>
+          <t>78,29%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,23; 46,38</t>
+          <t>24,89; 41,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,08; 78,68</t>
+          <t>67,78; 84,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,99; 81,52</t>
+          <t>62,03; 79,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,07; 46,19</t>
+          <t>31,9; 47,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>75,59; 85,81</t>
+          <t>71,85; 84,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,51; 91,01</t>
+          <t>77,14; 89,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,54; 43,75</t>
+          <t>31,28; 42,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,03; 80,62</t>
+          <t>72,81; 83,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,06; 85,02</t>
+          <t>72,19; 83,11</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>42,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>79,6%</t>
+          <t>90,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71,13%</t>
+          <t>81,23%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>43,03%</t>
+          <t>45,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>83,49%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,78%</t>
+          <t>80,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>89,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>75,3%</t>
+          <t>80,96%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,95; 58,17</t>
+          <t>17,18; 75,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,86; 90,17</t>
+          <t>76,34; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,61; 83,14</t>
+          <t>60,14; 93,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,15; 55,11</t>
+          <t>30,12; 63,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>73,98; 91,98</t>
+          <t>72,44; 96,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,11; 88,47</t>
+          <t>65,16; 91,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,06; 52,6</t>
+          <t>29,9; 62,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,56; 88,05</t>
+          <t>78,75; 95,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>66,18; 82,97</t>
+          <t>68,62; 89,66</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>79,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>71,93%</t>
+          <t>71,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>81,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,16%</t>
+          <t>84,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>77,68%</t>
+          <t>80,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>77,9%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,24; 39,4</t>
+          <t>26,11; 37,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,88; 77,97</t>
+          <t>74,24; 84,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,69; 76,09</t>
+          <t>65,38; 76,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,91; 45,01</t>
+          <t>36,3; 46,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,64; 83,94</t>
+          <t>78,21; 85,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,45; 87,72</t>
+          <t>79,8; 86,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,95; 41,2</t>
+          <t>32,51; 40,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,31; 80,15</t>
+          <t>77,21; 83,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>76,25; 81,15</t>
+          <t>74,33; 81,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1072,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido (tasa de respuesta: 97,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>97567</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>335672</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>246163</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>170762</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>421903</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>354403</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>268329</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>757574</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>600565</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>68797; 121909</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>301791; 362840</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>215780; 273323</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>143233; 199272</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>393426; 447181</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>328776; 373435</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>228355; 312427</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>712304; 796312</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>563624; 636695</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>97556</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>277539</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>226278</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>133406</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>330771</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>281506</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>230962</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>608310</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>507785</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>72483; 122181</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>241553; 302217</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>194650; 250897</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>108275; 162155</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>300675; 354792</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>258287; 298546</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>197246; 268135</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>564138; 644898</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>468241; 539049</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36255</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>92528</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>64664</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>35775</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>83812</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>65802</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>72030</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>176339</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>130465</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14572; 63950</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>77692; 101768</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47874; 74786</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23573; 49979</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>69269; 92542</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53136; 74487</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>48763; 101862</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>155450; 188690</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>110580; 144487</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>568.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>231379</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>705738</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>537105</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>339943</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>836485</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>701710</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>571322</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1542223</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1238815</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>192665; 280324</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>657931; 746544</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>493730; 574548</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>298683; 382002</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>798400; 870729</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>666382; 726034</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>507473; 634080</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1472365; 1596992</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1182072; 1288049</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>